--- a/templates/QA-Automation/RSTK-8093-Inventory Location Adjustment.xlsx
+++ b/templates/QA-Automation/RSTK-8093-Inventory Location Adjustment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA00CA-42FB-4F44-82AB-7B8DD433D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B6F611-66C0-4FC6-AD94-B82B121DBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>OH (On Hand Loc)</t>
   </si>
@@ -52,9 +52,6 @@
     <t>10 (Denver)</t>
   </si>
   <si>
-    <t>CON (Consigned)</t>
-  </si>
-  <si>
     <t>100 Home Project</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>scrap</t>
   </si>
   <si>
-    <t>KCB2T</t>
-  </si>
-  <si>
     <t>BCOH (On Hand Loc)</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
   </si>
   <si>
     <t>Serial scrap</t>
-  </si>
-  <si>
-    <t>serial down</t>
   </si>
 </sst>
 </file>
@@ -494,7 +485,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A6" sqref="A6:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -538,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -586,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFB8869-5566-4466-B219-3DC3C74DEDCA}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,19 +602,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -635,21 +626,21 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -658,49 +649,49 @@
         <v>44292</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" s="4"/>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -708,64 +699,64 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" s="4"/>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -774,7 +765,7 @@
         <v>44292</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -782,64 +773,64 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" s="4"/>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9" s="4"/>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -848,54 +839,30 @@
         <v>44292</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44292</v>
+      </c>
       <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>44292</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
